--- a/medicine/Mort/Les_20_pendus_du_Hentchak/Les_20_pendus_du_Hentchak.xlsx
+++ b/medicine/Mort/Les_20_pendus_du_Hentchak/Les_20_pendus_du_Hentchak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les 20 pendus du Hentchak[n 1] (en arménien Քսան կախաղան, aussi appelés « Les 20 martyrs » ou encore « Les 20 »)[1] est le nom qui désigne communément le groupe de militants du parti social-démocrate Hentchak pendus dans le Square Beyazıt de Constantinople le 15 juin 1915 pendant le génocide arménien.
+Les 20 pendus du Hentchak[n 1] (en arménien Քսան կախաղան, aussi appelés « Les 20 martyrs » ou encore « Les 20 ») est le nom qui désigne communément le groupe de militants du parti social-démocrate Hentchak pendus dans le Square Beyazıt de Constantinople le 15 juin 1915 pendant le génocide arménien.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1913 a lieu la 7e Convention générale du parti social-démocrate Hentchak à Constanța, en Roumanie. Cette convention a une grande importance non seulement pour les Hentchaks, mais pour l'histoire du peuple arménien dans sa globalité. Durant la convention, l'assemblée insiste sur son inquiétude vis-à-vis du mépris total dont fait preuve le gouvernement Jeunes-Turcs à propos de la vie des Arméniens vivant en Arménie occidentale. Les Hentchaks estiment de plus que ce mépris ne ferait que s'amplifier avec le temps. Ils insistent aussi sur le fait qu'une Arménie unie et indépendante ne pourra jamais exister sous le gouvernement raciste et dictatorial des Jeunes-Turcs.
 Ainsi, les membres de la convention se quittent avec deux objectifs :
 « Comme indiqué dans son programme initial, le parti doit effectuer la transition de ses actions du légal à l'illégal, afin de redevenir une organisation secrète »[n 2].
-« Planifier et assassiner les leaders du parti Ittihad (Jeunes-Turcs), les mêmes leaders qui ont commandité les massacres d'Adana de 1909, et donc ceux-là mêmes qui sont en ce moment en train d'organiser l'annihilation du peuple arménien »[n 3],[2].
+« Planifier et assassiner les leaders du parti Ittihad (Jeunes-Turcs), les mêmes leaders qui ont commandité les massacres d'Adana de 1909, et donc ceux-là mêmes qui sont en ce moment en train d'organiser l'annihilation du peuple arménien »[n 3],.
 Cependant, ces objectifs secrets sont transmis au gouvernement ottoman par un espion[réf. nécessaire]. De ce fait, dès l'arrivée des délégués ayant pris part à la convention à Constantinople, les autorités procèdent à leur arrestation. Fin 1913, c'est environ 140 leaders Hentchaks qui ont été arrêtés.
-Après deux ans de prison dans des conditions très difficiles d'incarcération, et après des simulacres de procès, vingt figures de premier plan dont Paramaz, Dr. Benne, Aram Achekbashian, Vanig et d'autres, sont condamnés à mort par pendaison. Quelques semaines après le début du génocide arménien, ils sont pendus le 15 juin 1915 dans la place centrale de Constantinople, connue sous le nom de Square Beyazıt. Les derniers mots de Paramaz furent : « Vous pouvez pendre nos corps, mais vous ne pourrez pendre nos idées… Vous verrez demain, à l'horizon oriental, une Arménie socialiste »[n 4],[3].
+Après deux ans de prison dans des conditions très difficiles d'incarcération, et après des simulacres de procès, vingt figures de premier plan dont Paramaz, Dr. Benne, Aram Achekbashian, Vanig et d'autres, sont condamnés à mort par pendaison. Quelques semaines après le début du génocide arménien, ils sont pendus le 15 juin 1915 dans la place centrale de Constantinople, connue sous le nom de Square Beyazıt. Les derniers mots de Paramaz furent : « Vous pouvez pendre nos corps, mais vous ne pourrez pendre nos idées… Vous verrez demain, à l'horizon oriental, une Arménie socialiste »[n 4],.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Les pendus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les noms ci-dessous nous sont connus grâce à l'écrivain et éditeur arménien Teotig[4]. Deux autres leaders Hentchaks importants, Stépan Sapah-Gulian (en) et Varaztahd, sont condamnés à mort par contumace.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms ci-dessous nous sont connus grâce à l'écrivain et éditeur arménien Teotig. Deux autres leaders Hentchaks importants, Stépan Sapah-Gulian (en) et Varaztahd, sont condamnés à mort par contumace.
 Paramaz (Փարամազ),
 Bedros Torossian (Պետոս Թորոսեան), connu sous le pseudo « Dr. Benne » (Տքթ. Պէննէ), originaire de Kharpert,
 Aram Achekbachian (en) (Արամ Աչըգպաշեան), originaire d'Arabkir,
@@ -620,12 +636,14 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis leur exécution, les 20 martyrs ont été une source d'inspiration pour des milliers de jeunes arméniens dans le monde, en particulier ceux qui ont rejoint le parti social-démocrate Hentchak et combattu dans ses rangs.
-En 2001, un monument en l'honneur de Paramaz et ses 19 camarades est inauguré à Meghri, en Arménie[5].
-Le 15 juin 2010, une conférence sur le sujet est organisée à Erevan et une cérémonie est organisée en l'honneur des militants pendus à Tsitsernakaberd, le mémorial dédié aux victimes du génocide arménien[6].
-Le 13 juin 2013, une conférence est organisée à Istanbul en présence d'associations luttant pour les droits de l'homme et d’intellectuels turcs[7].
+En 2001, un monument en l'honneur de Paramaz et ses 19 camarades est inauguré à Meghri, en Arménie.
+Le 15 juin 2010, une conférence sur le sujet est organisée à Erevan et une cérémonie est organisée en l'honneur des militants pendus à Tsitsernakaberd, le mémorial dédié aux victimes du génocide arménien.
+Le 13 juin 2013, une conférence est organisée à Istanbul en présence d'associations luttant pour les droits de l'homme et d’intellectuels turcs.
 </t>
         </is>
       </c>
